--- a/doc/용어.xlsx
+++ b/doc/용어.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="202">
   <si>
     <t>사용자명</t>
   </si>
@@ -212,422 +212,531 @@
     <t>menu_component</t>
   </si>
   <si>
+    <t>inquiry_title</t>
+  </si>
+  <si>
+    <t>코드종류</t>
+  </si>
+  <si>
+    <t>common_kind_code</t>
+  </si>
+  <si>
+    <t>코드</t>
+  </si>
+  <si>
+    <t>common_code</t>
+  </si>
+  <si>
+    <t>코드명</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>사용자생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점경도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반납시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인승구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전면허번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허만료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허발행일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량이미지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요금코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용가능시간인수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용가능시간반납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여요금할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점기본주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_type_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_image_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seating_capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_restriction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_code</t>
+  </si>
+  <si>
+    <t>rate_code</t>
+  </si>
+  <si>
+    <t>rental_rate_sub_category</t>
+  </si>
+  <si>
+    <t>rental_rate</t>
+  </si>
+  <si>
+    <t>rental_discount_rate</t>
+  </si>
+  <si>
+    <t>branch_name</t>
+  </si>
+  <si>
+    <t>branch_longitude</t>
+  </si>
+  <si>
+    <t>branch_latitude</t>
+  </si>
+  <si>
+    <t>branch_detailed_address</t>
+  </si>
+  <si>
+    <t>branch_phone_number</t>
+  </si>
+  <si>
+    <t>available_pickup_time</t>
+  </si>
+  <si>
+    <t>available_return_time</t>
+  </si>
+  <si>
+    <t>reservation_code</t>
+  </si>
+  <si>
+    <t>rental_location</t>
+  </si>
+  <si>
+    <t>rental_date</t>
+  </si>
+  <si>
+    <t>rental_time</t>
+  </si>
+  <si>
+    <t>return_location</t>
+  </si>
+  <si>
+    <t>return_date</t>
+  </si>
+  <si>
+    <t>return_time</t>
+  </si>
+  <si>
+    <t>payment_category</t>
+  </si>
+  <si>
+    <t>payment_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_amount</t>
+  </si>
+  <si>
+    <t>user_phone_number</t>
+  </si>
+  <si>
+    <t>user_birth_date</t>
+  </si>
+  <si>
+    <t>driver_license_number</t>
+  </si>
+  <si>
+    <t>license_expiry_date</t>
+  </si>
+  <si>
+    <t>license_issue_date</t>
+  </si>
+  <si>
+    <t>user_category</t>
+  </si>
+  <si>
+    <t>usage_status</t>
+  </si>
+  <si>
+    <t>admin_code</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>response_content</t>
+  </si>
+  <si>
+    <t>rental_rate_main_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_basic_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점우편번호코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_privileges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_status</t>
+  </si>
+  <si>
+    <t>차량상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_tpye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>inquiry_code</t>
-  </si>
-  <si>
-    <t>inquiry_title</t>
-  </si>
-  <si>
-    <t>코드종류</t>
-  </si>
-  <si>
-    <t>common_kind_code</t>
-  </si>
-  <si>
-    <t>코드</t>
-  </si>
-  <si>
-    <t>common_code</t>
-  </si>
-  <si>
-    <t>코드명</t>
-  </si>
-  <si>
-    <t>common_name</t>
-  </si>
-  <si>
-    <t>사용자생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점경도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반납시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인승구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운전면허번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허만료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허발행일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면허제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>년식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량이미지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요금코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자권한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용가능시간인수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용가능시간반납</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점위도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질의코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질의제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질의내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여요금할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점기본주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점상세주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_type_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_type_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_image_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seating_capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>license_restriction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model_year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car_manufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_code</t>
-  </si>
-  <si>
-    <t>rate_code</t>
-  </si>
-  <si>
-    <t>rental_rate_sub_category</t>
-  </si>
-  <si>
-    <t>rental_rate</t>
-  </si>
-  <si>
-    <t>rental_discount_rate</t>
-  </si>
-  <si>
-    <t>branch_name</t>
-  </si>
-  <si>
-    <t>branch_longitude</t>
-  </si>
-  <si>
-    <t>branch_latitude</t>
-  </si>
-  <si>
-    <t>branch_detailed_address</t>
-  </si>
-  <si>
-    <t>branch_phone_number</t>
-  </si>
-  <si>
-    <t>available_pickup_time</t>
-  </si>
-  <si>
-    <t>available_return_time</t>
-  </si>
-  <si>
-    <t>reservation_code</t>
-  </si>
-  <si>
-    <t>rental_location</t>
-  </si>
-  <si>
-    <t>rental_date</t>
-  </si>
-  <si>
-    <t>rental_time</t>
-  </si>
-  <si>
-    <t>return_location</t>
-  </si>
-  <si>
-    <t>return_date</t>
-  </si>
-  <si>
-    <t>return_time</t>
-  </si>
-  <si>
-    <t>payment_category</t>
-  </si>
-  <si>
-    <t>payment_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_amount</t>
-  </si>
-  <si>
-    <t>user_phone_number</t>
-  </si>
-  <si>
-    <t>user_birth_date</t>
-  </si>
-  <si>
-    <t>driver_license_number</t>
-  </si>
-  <si>
-    <t>license_expiry_date</t>
-  </si>
-  <si>
-    <t>license_issue_date</t>
-  </si>
-  <si>
-    <t>user_category</t>
-  </si>
-  <si>
-    <t>usage_status</t>
-  </si>
-  <si>
-    <t>admin_code</t>
-  </si>
-  <si>
-    <t>admin_id</t>
-  </si>
-  <si>
-    <t>admin_name</t>
-  </si>
-  <si>
-    <t>admin_privileges</t>
-  </si>
-  <si>
-    <t>response_content</t>
-  </si>
-  <si>
-    <t>rental_rate_main_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inquiry_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>response_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_basic_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점우편번호코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질의상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1021,10 +1130,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -1045,10 +1154,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1069,10 +1178,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1093,10 +1202,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1117,10 +1226,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1141,10 +1250,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1165,10 +1274,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1189,10 +1298,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1213,10 +1322,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -1237,10 +1346,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1261,13 +1370,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -1285,10 +1394,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1309,10 +1418,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1333,13 +1442,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1357,13 +1466,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1381,10 +1490,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1407,10 +1516,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1433,7 +1542,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1457,7 +1566,7 @@
     </row>
     <row r="20" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
@@ -1481,10 +1590,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -1505,10 +1614,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1529,10 +1638,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1551,10 +1660,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -1573,7 +1682,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -1595,10 +1704,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -1617,10 +1726,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -1639,10 +1748,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -1661,10 +1770,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -1683,10 +1792,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -1705,10 +1814,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -1729,7 +1838,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1753,10 +1862,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -1777,10 +1886,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -1801,10 +1910,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -1825,10 +1934,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -1849,10 +1958,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -1873,10 +1982,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -1897,10 +2006,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -1913,7 +2022,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>26</v>
@@ -1921,10 +2030,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -1937,7 +2046,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>26</v>
@@ -1945,10 +2054,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
@@ -2046,7 +2155,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -2067,10 +2176,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2091,10 +2200,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -2115,10 +2224,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2139,10 +2248,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2166,10 +2275,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -2190,10 +2299,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2211,10 +2320,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
@@ -2235,10 +2344,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2259,10 +2368,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -2283,10 +2392,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -2307,10 +2416,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -2331,23 +2440,23 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>26</v>
@@ -2355,16 +2464,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>24</v>
@@ -2379,23 +2488,23 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2000</v>
+        <v>22</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>26</v>
@@ -2403,58 +2512,57 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2000</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" t="s">
-        <v>166</v>
+      <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>38</v>
@@ -2468,45 +2576,47 @@
         <v>39</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>24</v>
@@ -2522,16 +2632,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>24</v>
@@ -2547,10 +2657,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>32</v>
@@ -2572,10 +2682,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>32</v>
@@ -2597,23 +2707,23 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>26</v>
@@ -2622,23 +2732,23 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>26</v>
@@ -2647,23 +2757,21 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>26</v>
@@ -2672,10 +2780,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -2695,21 +2803,23 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="1">
-        <v>100</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>26</v>
@@ -2718,16 +2828,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>24</v>
@@ -2743,23 +2853,23 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>26</v>
@@ -2768,28 +2878,259 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D75" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="1">
+        <v>100</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
